--- a/content/Entreprises_Complet2.xlsx
+++ b/content/Entreprises_Complet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PartC\00_Stage_App\Sauv 2022 entreprise complet2\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEAF93-D476-4E94-B2CB-4C239E9D8231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D987A532-B156-4E09-8878-144A823FCF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Entreprises_Complet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CP$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CP$1</definedName>
     <definedName name="d">Entreprises_Complet2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -322,7 +322,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -375,7 +375,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -397,32 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -441,22 +414,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -804,21 +771,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ148"/>
+  <dimension ref="A1:CQ147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AR12" sqref="AR12"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="22" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" style="24" customWidth="1"/>
-    <col min="5" max="12" width="30.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="23" customWidth="1"/>
+    <col min="5" max="12" width="30.7109375" style="23" customWidth="1"/>
     <col min="13" max="13" width="25.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="25.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="26.85546875" style="1" customWidth="1"/>
@@ -828,10 +795,10 @@
     <col min="19" max="19" width="26.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="22.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="47.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="47.140625" style="22" customWidth="1"/>
+    <col min="22" max="22" width="47.140625" style="21" customWidth="1"/>
     <col min="23" max="23" width="47" style="5" customWidth="1"/>
     <col min="24" max="24" width="32.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="44" style="22" customWidth="1"/>
+    <col min="25" max="25" width="44" style="21" customWidth="1"/>
     <col min="26" max="26" width="46.140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="47" style="1" customWidth="1"/>
     <col min="28" max="28" width="32.7109375" style="1" customWidth="1"/>
@@ -867,134 +834,135 @@
     <col min="78" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="29" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:95" s="28" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="41" t="s">
+      <c r="AP1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="43" t="s">
+      <c r="AQ1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="41" t="s">
+      <c r="AR1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AS1" s="41" t="s">
+      <c r="AS1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AT1" s="41" t="s">
+      <c r="AT1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="50"/>
-      <c r="CA1" s="50"/>
-      <c r="CB1" s="50"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
-      <c r="CI1" s="51"/>
-      <c r="CJ1" s="51"/>
-      <c r="CK1" s="51"/>
-      <c r="CL1" s="51"/>
-      <c r="CM1" s="51"/>
-      <c r="CN1" s="51"/>
-      <c r="CO1" s="44"/>
-      <c r="CP1" s="28"/>
-    </row>
-    <row r="2" spans="1:95" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="37"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="37"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="37"/>
+      <c r="BV1" s="37"/>
+      <c r="BW1" s="37"/>
+      <c r="BX1" s="37"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="38"/>
+      <c r="CB1" s="38"/>
+      <c r="CC1" s="38"/>
+      <c r="CD1" s="33"/>
+      <c r="CE1" s="33"/>
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
+      <c r="CJ1" s="33"/>
+      <c r="CK1" s="33"/>
+      <c r="CL1" s="33"/>
+      <c r="CM1" s="33"/>
+      <c r="CN1" s="33"/>
+      <c r="CO1" s="33"/>
+      <c r="CP1" s="27"/>
+    </row>
+    <row r="2" spans="1:95" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>23</v>
+      <c r="D2" s="8" t="str">
+        <f t="shared" ref="D2" si="0">IF(BH2&lt;&gt;0,";2022_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2022_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2021_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2021_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2020_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2020_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2019_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2019_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0,";2018_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2018_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2017_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2017_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2016_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2016_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2015_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2015_i="&amp;BW2," ")&amp;IF(BX2&lt;&gt;0," ; 2014_A="&amp;BX2," ")&amp;IF(BY2&lt;&gt;0," ; 2014_i="&amp;BY2," ")</f>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1033,7 +1001,7 @@
       <c r="AM2" s="11"/>
       <c r="AN2" s="10"/>
       <c r="AO2" s="11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AP2" s="11" t="s">
         <v>7</v>
@@ -1041,22 +1009,22 @@
       <c r="AQ2" s="13">
         <v>51100</v>
       </c>
-      <c r="AR2" s="17">
-        <v>326888110</v>
+      <c r="AR2" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="AS2" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
-      <c r="AT2" s="27" t="s">
-        <v>14</v>
+      <c r="AT2" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="AU2" s="14"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="26"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="25"/>
       <c r="AX2" s="10"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
       <c r="BB2" s="15"/>
       <c r="BC2" s="8"/>
       <c r="BD2" s="15"/>
@@ -1071,16 +1039,16 @@
       <c r="BM2" s="8"/>
       <c r="BN2" s="8"/>
       <c r="BO2" s="8"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="45"/>
-      <c r="BR2" s="45"/>
-      <c r="BS2" s="45"/>
-      <c r="BT2" s="45"/>
-      <c r="BU2" s="45"/>
-      <c r="BV2" s="45"/>
-      <c r="BW2" s="45"/>
-      <c r="BX2" s="45"/>
-      <c r="BY2" s="45"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
       <c r="BZ2" s="15"/>
       <c r="CA2" s="15"/>
       <c r="CB2" s="15"/>
@@ -1097,21 +1065,21 @@
       <c r="CM2" s="15"/>
       <c r="CN2" s="15"/>
       <c r="CO2" s="15"/>
-      <c r="CP2" s="18"/>
-    </row>
-    <row r="3" spans="1:95" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="21"/>
+    </row>
+    <row r="3" spans="1:95" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
-      <c r="D3" s="8" t="str">
-        <f t="shared" ref="D3" si="0">IF(BH3&lt;&gt;0,";2022_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2022_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0,";2021_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2021_i="&amp;BK3," ")&amp;IF(BL3&lt;&gt;0,";2020_A="&amp;BL3," ")&amp;IF(BM3&lt;&gt;0," ; 2020_i="&amp;BM3," ")&amp;IF(BN3&lt;&gt;0,";2019_A="&amp;BN3," ")&amp;IF(BO3&lt;&gt;0," ; 2019_i="&amp;BO3," ")&amp;IF(BP3&lt;&gt;0,";2018_A="&amp;BP3," ")&amp;IF(BQ3&lt;&gt;0," ; 2018_i="&amp;BQ3," ")&amp;IF(BR3&lt;&gt;0," ; 2017_A="&amp;BR3," ")&amp;IF(BS3&lt;&gt;0," ; 2017_i="&amp;BS3," ")&amp;IF(BT3&lt;&gt;0," ; 2016_A="&amp;BT3," ")&amp;IF(BU3&lt;&gt;0," ; 2016_i="&amp;BU3," ")&amp;IF(BV3&lt;&gt;0," ; 2015_A="&amp;BV3," ")&amp;IF(BW3&lt;&gt;0," ; 2015_i="&amp;BW3," ")&amp;IF(BX3&lt;&gt;0," ; 2014_A="&amp;BX3," ")&amp;IF(BY3&lt;&gt;0," ; 2014_i="&amp;BY3," ")</f>
-        <v xml:space="preserve">                  </v>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1150,7 +1118,7 @@
       <c r="AM3" s="11"/>
       <c r="AN3" s="10"/>
       <c r="AO3" s="11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AP3" s="11" t="s">
         <v>7</v>
@@ -1158,22 +1126,22 @@
       <c r="AQ3" s="13">
         <v>51100</v>
       </c>
-      <c r="AR3" s="17" t="s">
-        <v>19</v>
+      <c r="AR3" s="17">
+        <v>326888110</v>
       </c>
       <c r="AS3" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
-      <c r="AT3" s="27" t="s">
-        <v>21</v>
+      <c r="AT3" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="AU3" s="14"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="26"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="25"/>
       <c r="AX3" s="10"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="25"/>
+      <c r="BA3" s="25"/>
       <c r="BB3" s="15"/>
       <c r="BC3" s="8"/>
       <c r="BD3" s="15"/>
@@ -1188,16 +1156,16 @@
       <c r="BM3" s="8"/>
       <c r="BN3" s="8"/>
       <c r="BO3" s="8"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="45"/>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="45"/>
-      <c r="BW3" s="45"/>
-      <c r="BX3" s="45"/>
-      <c r="BY3" s="45"/>
+      <c r="BP3" s="34"/>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="34"/>
+      <c r="BV3" s="34"/>
+      <c r="BW3" s="34"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="34"/>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="15"/>
       <c r="CB3" s="15"/>
@@ -1214,114 +1182,67 @@
       <c r="CM3" s="15"/>
       <c r="CN3" s="15"/>
       <c r="CO3" s="15"/>
-      <c r="CP3" s="21"/>
-      <c r="CQ3" s="22"/>
+      <c r="CP3" s="18"/>
     </row>
     <row r="4" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="20"/>
-      <c r="BP4" s="30"/>
-      <c r="BQ4" s="30"/>
-      <c r="BR4" s="30"/>
-      <c r="BS4" s="30"/>
-      <c r="BT4" s="30"/>
-      <c r="BU4" s="30"/>
-      <c r="BV4" s="30"/>
-      <c r="BW4" s="30"/>
-      <c r="BX4" s="30"/>
-      <c r="BY4" s="30"/>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="20"/>
-      <c r="CB4" s="20"/>
-      <c r="CC4" s="20"/>
-      <c r="CD4" s="20"/>
-      <c r="CE4" s="20"/>
-      <c r="CF4" s="20"/>
-      <c r="CG4" s="20"/>
-      <c r="CH4" s="20"/>
-      <c r="CI4" s="20"/>
-      <c r="CJ4" s="20"/>
-      <c r="CK4" s="20"/>
-      <c r="CL4" s="20"/>
-      <c r="CM4" s="20"/>
-      <c r="CN4" s="20"/>
-      <c r="CO4" s="20"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="6"/>
+      <c r="CH4" s="6"/>
+      <c r="CI4" s="6"/>
+      <c r="CJ4" s="6"/>
+      <c r="CK4" s="6"/>
+      <c r="CL4" s="6"/>
+      <c r="CM4" s="6"/>
+      <c r="CN4" s="6"/>
+      <c r="CO4" s="6"/>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1362,15 +1283,15 @@
       <c r="CO5" s="6"/>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D6" s="8"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1411,15 +1332,15 @@
       <c r="CO6" s="6"/>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1460,15 +1381,15 @@
       <c r="CO7" s="6"/>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1509,15 +1430,15 @@
       <c r="CO8" s="6"/>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1558,15 +1479,15 @@
       <c r="CO9" s="6"/>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -1607,15 +1528,15 @@
       <c r="CO10" s="6"/>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1656,15 +1577,15 @@
       <c r="CO11" s="6"/>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1705,15 +1626,15 @@
       <c r="CO12" s="6"/>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -1754,15 +1675,15 @@
       <c r="CO13" s="6"/>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -1803,15 +1724,15 @@
       <c r="CO14" s="6"/>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -1852,15 +1773,15 @@
       <c r="CO15" s="6"/>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -1901,15 +1822,15 @@
       <c r="CO16" s="6"/>
     </row>
     <row r="17" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -1950,15 +1871,15 @@
       <c r="CO17" s="6"/>
     </row>
     <row r="18" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -1999,15 +1920,15 @@
       <c r="CO18" s="6"/>
     </row>
     <row r="19" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -2048,15 +1969,15 @@
       <c r="CO19" s="6"/>
     </row>
     <row r="20" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2097,15 +2018,15 @@
       <c r="CO20" s="6"/>
     </row>
     <row r="21" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -2146,15 +2067,15 @@
       <c r="CO21" s="6"/>
     </row>
     <row r="22" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2195,15 +2116,15 @@
       <c r="CO22" s="6"/>
     </row>
     <row r="23" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -2244,15 +2165,15 @@
       <c r="CO23" s="6"/>
     </row>
     <row r="24" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -2293,15 +2214,15 @@
       <c r="CO24" s="6"/>
     </row>
     <row r="25" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -2342,15 +2263,15 @@
       <c r="CO25" s="6"/>
     </row>
     <row r="26" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -2391,15 +2312,15 @@
       <c r="CO26" s="6"/>
     </row>
     <row r="27" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -2440,15 +2361,15 @@
       <c r="CO27" s="6"/>
     </row>
     <row r="28" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -2489,15 +2410,15 @@
       <c r="CO28" s="6"/>
     </row>
     <row r="29" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -2538,15 +2459,15 @@
       <c r="CO29" s="6"/>
     </row>
     <row r="30" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -2587,15 +2508,15 @@
       <c r="CO30" s="6"/>
     </row>
     <row r="31" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -2636,15 +2557,15 @@
       <c r="CO31" s="6"/>
     </row>
     <row r="32" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -2685,15 +2606,15 @@
       <c r="CO32" s="6"/>
     </row>
     <row r="33" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -2734,15 +2655,15 @@
       <c r="CO33" s="6"/>
     </row>
     <row r="34" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
@@ -2783,15 +2704,15 @@
       <c r="CO34" s="6"/>
     </row>
     <row r="35" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -2832,15 +2753,15 @@
       <c r="CO35" s="6"/>
     </row>
     <row r="36" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
@@ -2881,15 +2802,15 @@
       <c r="CO36" s="6"/>
     </row>
     <row r="37" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
@@ -2930,15 +2851,15 @@
       <c r="CO37" s="6"/>
     </row>
     <row r="38" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
@@ -2979,15 +2900,15 @@
       <c r="CO38" s="6"/>
     </row>
     <row r="39" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -3028,15 +2949,15 @@
       <c r="CO39" s="6"/>
     </row>
     <row r="40" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
@@ -3077,15 +2998,15 @@
       <c r="CO40" s="6"/>
     </row>
     <row r="41" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
@@ -3126,15 +3047,15 @@
       <c r="CO41" s="6"/>
     </row>
     <row r="42" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
@@ -3175,15 +3096,15 @@
       <c r="CO42" s="6"/>
     </row>
     <row r="43" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -3224,15 +3145,15 @@
       <c r="CO43" s="6"/>
     </row>
     <row r="44" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -3273,15 +3194,15 @@
       <c r="CO44" s="6"/>
     </row>
     <row r="45" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
@@ -3322,15 +3243,15 @@
       <c r="CO45" s="6"/>
     </row>
     <row r="46" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
@@ -3371,15 +3292,15 @@
       <c r="CO46" s="6"/>
     </row>
     <row r="47" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -3420,15 +3341,15 @@
       <c r="CO47" s="6"/>
     </row>
     <row r="48" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
@@ -3469,15 +3390,15 @@
       <c r="CO48" s="6"/>
     </row>
     <row r="49" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
@@ -3518,15 +3439,15 @@
       <c r="CO49" s="6"/>
     </row>
     <row r="50" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
@@ -3567,15 +3488,15 @@
       <c r="CO50" s="6"/>
     </row>
     <row r="51" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -3616,15 +3537,15 @@
       <c r="CO51" s="6"/>
     </row>
     <row r="52" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -3665,15 +3586,15 @@
       <c r="CO52" s="6"/>
     </row>
     <row r="53" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -3714,15 +3635,15 @@
       <c r="CO53" s="6"/>
     </row>
     <row r="54" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -3763,15 +3684,15 @@
       <c r="CO54" s="6"/>
     </row>
     <row r="55" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
@@ -3812,15 +3733,15 @@
       <c r="CO55" s="6"/>
     </row>
     <row r="56" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -3861,15 +3782,15 @@
       <c r="CO56" s="6"/>
     </row>
     <row r="57" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -3910,15 +3831,15 @@
       <c r="CO57" s="6"/>
     </row>
     <row r="58" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
@@ -3959,15 +3880,15 @@
       <c r="CO58" s="6"/>
     </row>
     <row r="59" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
@@ -4008,15 +3929,15 @@
       <c r="CO59" s="6"/>
     </row>
     <row r="60" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
@@ -4057,15 +3978,15 @@
       <c r="CO60" s="6"/>
     </row>
     <row r="61" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
@@ -4106,15 +4027,15 @@
       <c r="CO61" s="6"/>
     </row>
     <row r="62" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -4155,15 +4076,15 @@
       <c r="CO62" s="6"/>
     </row>
     <row r="63" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -4204,15 +4125,15 @@
       <c r="CO63" s="6"/>
     </row>
     <row r="64" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
@@ -4253,15 +4174,15 @@
       <c r="CO64" s="6"/>
     </row>
     <row r="65" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
@@ -4302,15 +4223,15 @@
       <c r="CO65" s="6"/>
     </row>
     <row r="66" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
@@ -4351,15 +4272,15 @@
       <c r="CO66" s="6"/>
     </row>
     <row r="67" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
@@ -4400,15 +4321,15 @@
       <c r="CO67" s="6"/>
     </row>
     <row r="68" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -4449,15 +4370,15 @@
       <c r="CO68" s="6"/>
     </row>
     <row r="69" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -4498,15 +4419,15 @@
       <c r="CO69" s="6"/>
     </row>
     <row r="70" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
@@ -4547,15 +4468,15 @@
       <c r="CO70" s="6"/>
     </row>
     <row r="71" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
@@ -4596,15 +4517,15 @@
       <c r="CO71" s="6"/>
     </row>
     <row r="72" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
@@ -4645,15 +4566,15 @@
       <c r="CO72" s="6"/>
     </row>
     <row r="73" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
@@ -4694,15 +4615,15 @@
       <c r="CO73" s="6"/>
     </row>
     <row r="74" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
@@ -4743,15 +4664,15 @@
       <c r="CO74" s="6"/>
     </row>
     <row r="75" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
@@ -4792,15 +4713,15 @@
       <c r="CO75" s="6"/>
     </row>
     <row r="76" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
@@ -4841,15 +4762,15 @@
       <c r="CO76" s="6"/>
     </row>
     <row r="77" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -4890,15 +4811,15 @@
       <c r="CO77" s="6"/>
     </row>
     <row r="78" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -4939,15 +4860,15 @@
       <c r="CO78" s="6"/>
     </row>
     <row r="79" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
@@ -4988,15 +4909,15 @@
       <c r="CO79" s="6"/>
     </row>
     <row r="80" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -5037,15 +4958,15 @@
       <c r="CO80" s="6"/>
     </row>
     <row r="81" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -5086,15 +5007,15 @@
       <c r="CO81" s="6"/>
     </row>
     <row r="82" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
@@ -5135,15 +5056,15 @@
       <c r="CO82" s="6"/>
     </row>
     <row r="83" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
@@ -5184,15 +5105,15 @@
       <c r="CO83" s="6"/>
     </row>
     <row r="84" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
@@ -5233,15 +5154,15 @@
       <c r="CO84" s="6"/>
     </row>
     <row r="85" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
@@ -5282,15 +5203,15 @@
       <c r="CO85" s="6"/>
     </row>
     <row r="86" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
@@ -5331,15 +5252,15 @@
       <c r="CO86" s="6"/>
     </row>
     <row r="87" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
@@ -5380,15 +5301,15 @@
       <c r="CO87" s="6"/>
     </row>
     <row r="88" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
@@ -5429,15 +5350,15 @@
       <c r="CO88" s="6"/>
     </row>
     <row r="89" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
@@ -5478,15 +5399,15 @@
       <c r="CO89" s="6"/>
     </row>
     <row r="90" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
@@ -5527,15 +5448,15 @@
       <c r="CO90" s="6"/>
     </row>
     <row r="91" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
@@ -5576,15 +5497,15 @@
       <c r="CO91" s="6"/>
     </row>
     <row r="92" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
@@ -5625,15 +5546,15 @@
       <c r="CO92" s="6"/>
     </row>
     <row r="93" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
@@ -5674,15 +5595,15 @@
       <c r="CO93" s="6"/>
     </row>
     <row r="94" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="25"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
@@ -5723,15 +5644,15 @@
       <c r="CO94" s="6"/>
     </row>
     <row r="95" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="25"/>
-      <c r="L95" s="25"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
@@ -5772,15 +5693,15 @@
       <c r="CO95" s="6"/>
     </row>
     <row r="96" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="25"/>
-      <c r="K96" s="25"/>
-      <c r="L96" s="25"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
@@ -5821,15 +5742,15 @@
       <c r="CO96" s="6"/>
     </row>
     <row r="97" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="25"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
@@ -5870,15 +5791,15 @@
       <c r="CO97" s="6"/>
     </row>
     <row r="98" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="25"/>
-      <c r="L98" s="25"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
@@ -5919,15 +5840,15 @@
       <c r="CO98" s="6"/>
     </row>
     <row r="99" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="25"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
@@ -5968,15 +5889,15 @@
       <c r="CO99" s="6"/>
     </row>
     <row r="100" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
@@ -6017,15 +5938,15 @@
       <c r="CO100" s="6"/>
     </row>
     <row r="101" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="K101" s="25"/>
-      <c r="L101" s="25"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
@@ -6066,15 +5987,15 @@
       <c r="CO101" s="6"/>
     </row>
     <row r="102" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
       <c r="O102" s="6"/>
@@ -6115,15 +6036,15 @@
       <c r="CO102" s="6"/>
     </row>
     <row r="103" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
@@ -6164,15 +6085,15 @@
       <c r="CO103" s="6"/>
     </row>
     <row r="104" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
@@ -6213,15 +6134,15 @@
       <c r="CO104" s="6"/>
     </row>
     <row r="105" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="25"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
@@ -6262,15 +6183,15 @@
       <c r="CO105" s="6"/>
     </row>
     <row r="106" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="25"/>
-      <c r="L106" s="25"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
@@ -6311,15 +6232,15 @@
       <c r="CO106" s="6"/>
     </row>
     <row r="107" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="25"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
       <c r="O107" s="6"/>
@@ -6360,15 +6281,15 @@
       <c r="CO107" s="6"/>
     </row>
     <row r="108" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
       <c r="O108" s="6"/>
@@ -6409,15 +6330,15 @@
       <c r="CO108" s="6"/>
     </row>
     <row r="109" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="25"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
@@ -6458,15 +6379,15 @@
       <c r="CO109" s="6"/>
     </row>
     <row r="110" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="25"/>
-      <c r="L110" s="25"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
@@ -6507,15 +6428,15 @@
       <c r="CO110" s="6"/>
     </row>
     <row r="111" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25"/>
-      <c r="K111" s="25"/>
-      <c r="L111" s="25"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
@@ -6556,15 +6477,15 @@
       <c r="CO111" s="6"/>
     </row>
     <row r="112" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25"/>
-      <c r="K112" s="25"/>
-      <c r="L112" s="25"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
@@ -6605,15 +6526,15 @@
       <c r="CO112" s="6"/>
     </row>
     <row r="113" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
       <c r="O113" s="6"/>
@@ -6654,15 +6575,15 @@
       <c r="CO113" s="6"/>
     </row>
     <row r="114" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
       <c r="O114" s="6"/>
@@ -6703,15 +6624,15 @@
       <c r="CO114" s="6"/>
     </row>
     <row r="115" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
       <c r="O115" s="6"/>
@@ -6752,15 +6673,15 @@
       <c r="CO115" s="6"/>
     </row>
     <row r="116" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
       <c r="O116" s="6"/>
@@ -6801,15 +6722,15 @@
       <c r="CO116" s="6"/>
     </row>
     <row r="117" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="25"/>
-      <c r="K117" s="25"/>
-      <c r="L117" s="25"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
       <c r="O117" s="6"/>
@@ -6850,15 +6771,15 @@
       <c r="CO117" s="6"/>
     </row>
     <row r="118" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
@@ -6899,15 +6820,15 @@
       <c r="CO118" s="6"/>
     </row>
     <row r="119" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="25"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
       <c r="O119" s="6"/>
@@ -6948,15 +6869,15 @@
       <c r="CO119" s="6"/>
     </row>
     <row r="120" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="25"/>
-      <c r="L120" s="25"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
@@ -6997,15 +6918,15 @@
       <c r="CO120" s="6"/>
     </row>
     <row r="121" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="25"/>
-      <c r="L121" s="25"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
       <c r="O121" s="6"/>
@@ -7046,15 +6967,15 @@
       <c r="CO121" s="6"/>
     </row>
     <row r="122" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
       <c r="O122" s="6"/>
@@ -7095,15 +7016,15 @@
       <c r="CO122" s="6"/>
     </row>
     <row r="123" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
       <c r="O123" s="6"/>
@@ -7144,15 +7065,15 @@
       <c r="CO123" s="6"/>
     </row>
     <row r="124" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
       <c r="O124" s="6"/>
@@ -7193,15 +7114,15 @@
       <c r="CO124" s="6"/>
     </row>
     <row r="125" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="25"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
@@ -7242,15 +7163,15 @@
       <c r="CO125" s="6"/>
     </row>
     <row r="126" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
-      <c r="L126" s="25"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
@@ -7291,15 +7212,15 @@
       <c r="CO126" s="6"/>
     </row>
     <row r="127" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
-      <c r="I127" s="25"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="25"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
       <c r="O127" s="6"/>
@@ -7340,15 +7261,15 @@
       <c r="CO127" s="6"/>
     </row>
     <row r="128" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
       <c r="O128" s="6"/>
@@ -7389,15 +7310,15 @@
       <c r="CO128" s="6"/>
     </row>
     <row r="129" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="25"/>
-      <c r="L129" s="25"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
       <c r="O129" s="6"/>
@@ -7438,15 +7359,15 @@
       <c r="CO129" s="6"/>
     </row>
     <row r="130" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="25"/>
-      <c r="L130" s="25"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
       <c r="O130" s="6"/>
@@ -7487,15 +7408,15 @@
       <c r="CO130" s="6"/>
     </row>
     <row r="131" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="25"/>
-      <c r="L131" s="25"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
       <c r="M131" s="6"/>
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
@@ -7536,15 +7457,15 @@
       <c r="CO131" s="6"/>
     </row>
     <row r="132" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
-      <c r="J132" s="25"/>
-      <c r="K132" s="25"/>
-      <c r="L132" s="25"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
       <c r="M132" s="6"/>
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
@@ -7585,15 +7506,15 @@
       <c r="CO132" s="6"/>
     </row>
     <row r="133" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="25"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
       <c r="M133" s="6"/>
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
@@ -7634,15 +7555,15 @@
       <c r="CO133" s="6"/>
     </row>
     <row r="134" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="25"/>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
       <c r="M134" s="6"/>
       <c r="N134" s="6"/>
       <c r="O134" s="6"/>
@@ -7683,15 +7604,15 @@
       <c r="CO134" s="6"/>
     </row>
     <row r="135" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
-      <c r="J135" s="25"/>
-      <c r="K135" s="25"/>
-      <c r="L135" s="25"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
       <c r="O135" s="6"/>
@@ -7732,15 +7653,15 @@
       <c r="CO135" s="6"/>
     </row>
     <row r="136" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="25"/>
-      <c r="K136" s="25"/>
-      <c r="L136" s="25"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
       <c r="M136" s="6"/>
       <c r="N136" s="6"/>
       <c r="O136" s="6"/>
@@ -7781,15 +7702,15 @@
       <c r="CO136" s="6"/>
     </row>
     <row r="137" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
-      <c r="J137" s="25"/>
-      <c r="K137" s="25"/>
-      <c r="L137" s="25"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="24"/>
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
       <c r="O137" s="6"/>
@@ -7830,15 +7751,15 @@
       <c r="CO137" s="6"/>
     </row>
     <row r="138" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="25"/>
-      <c r="H138" s="25"/>
-      <c r="I138" s="25"/>
-      <c r="J138" s="25"/>
-      <c r="K138" s="25"/>
-      <c r="L138" s="25"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
       <c r="O138" s="6"/>
@@ -7879,15 +7800,15 @@
       <c r="CO138" s="6"/>
     </row>
     <row r="139" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
-      <c r="I139" s="25"/>
-      <c r="J139" s="25"/>
-      <c r="K139" s="25"/>
-      <c r="L139" s="25"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
@@ -7928,15 +7849,15 @@
       <c r="CO139" s="6"/>
     </row>
     <row r="140" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
       <c r="O140" s="6"/>
@@ -7977,15 +7898,15 @@
       <c r="CO140" s="6"/>
     </row>
     <row r="141" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="25"/>
-      <c r="H141" s="25"/>
-      <c r="I141" s="25"/>
-      <c r="J141" s="25"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="25"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
       <c r="O141" s="6"/>
@@ -8026,15 +7947,15 @@
       <c r="CO141" s="6"/>
     </row>
     <row r="142" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="25"/>
-      <c r="H142" s="25"/>
-      <c r="I142" s="25"/>
-      <c r="J142" s="25"/>
-      <c r="K142" s="25"/>
-      <c r="L142" s="25"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="24"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="24"/>
+      <c r="L142" s="24"/>
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
       <c r="O142" s="6"/>
@@ -8075,15 +7996,15 @@
       <c r="CO142" s="6"/>
     </row>
     <row r="143" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
-      <c r="J143" s="25"/>
-      <c r="K143" s="25"/>
-      <c r="L143" s="25"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
       <c r="O143" s="6"/>
@@ -8124,15 +8045,15 @@
       <c r="CO143" s="6"/>
     </row>
     <row r="144" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="25"/>
-      <c r="K144" s="25"/>
-      <c r="L144" s="25"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
+      <c r="J144" s="24"/>
+      <c r="K144" s="24"/>
+      <c r="L144" s="24"/>
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
       <c r="O144" s="6"/>
@@ -8173,15 +8094,15 @@
       <c r="CO144" s="6"/>
     </row>
     <row r="145" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="25"/>
-      <c r="K145" s="25"/>
-      <c r="L145" s="25"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
       <c r="O145" s="6"/>
@@ -8222,15 +8143,15 @@
       <c r="CO145" s="6"/>
     </row>
     <row r="146" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="25"/>
-      <c r="H146" s="25"/>
-      <c r="I146" s="25"/>
-      <c r="J146" s="25"/>
-      <c r="K146" s="25"/>
-      <c r="L146" s="25"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
       <c r="O146" s="6"/>
@@ -8271,15 +8192,15 @@
       <c r="CO146" s="6"/>
     </row>
     <row r="147" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="25"/>
-      <c r="I147" s="25"/>
-      <c r="J147" s="25"/>
-      <c r="K147" s="25"/>
-      <c r="L147" s="25"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
       <c r="O147" s="6"/>
@@ -8319,64 +8240,15 @@
       <c r="CN147" s="6"/>
       <c r="CO147" s="6"/>
     </row>
-    <row r="148" spans="4:93" x14ac:dyDescent="0.25">
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="25"/>
-      <c r="I148" s="25"/>
-      <c r="J148" s="25"/>
-      <c r="K148" s="25"/>
-      <c r="L148" s="25"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-      <c r="T148" s="6"/>
-      <c r="BB148" s="6"/>
-      <c r="BC148" s="6"/>
-      <c r="BD148" s="6"/>
-      <c r="BE148" s="6"/>
-      <c r="BF148" s="6"/>
-      <c r="BG148" s="6"/>
-      <c r="BH148" s="6"/>
-      <c r="BI148" s="6"/>
-      <c r="BJ148" s="6"/>
-      <c r="BK148" s="6"/>
-      <c r="BL148" s="6"/>
-      <c r="BM148" s="6"/>
-      <c r="BN148" s="6"/>
-      <c r="BO148" s="6"/>
-      <c r="BZ148" s="6"/>
-      <c r="CA148" s="6"/>
-      <c r="CB148" s="6"/>
-      <c r="CC148" s="6"/>
-      <c r="CD148" s="6"/>
-      <c r="CE148" s="6"/>
-      <c r="CF148" s="6"/>
-      <c r="CG148" s="6"/>
-      <c r="CH148" s="6"/>
-      <c r="CI148" s="6"/>
-      <c r="CJ148" s="6"/>
-      <c r="CK148" s="6"/>
-      <c r="CL148" s="6"/>
-      <c r="CM148" s="6"/>
-      <c r="CN148" s="6"/>
-      <c r="CO148" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:CP2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CP4">
-      <sortCondition ref="BB1:BB2"/>
+  <autoFilter ref="A1:CP1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CP3">
+      <sortCondition ref="BB1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="AS3" r:id="rId1" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
-    <hyperlink ref="AS2" r:id="rId2" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
+    <hyperlink ref="AS2" r:id="rId1" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AS3" r:id="rId2" xr:uid="{0ECEA8CF-B4BD-421E-9145-7202C513EC30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
